--- a/data/trans_camb/P14B23_2016_2023-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P14B23_2016_2023-Dificultad-trans_camb.xlsx
@@ -570,7 +570,7 @@
         <v>4.002473998495762</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4.690070749968817</v>
+        <v>4.690070749968815</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.8261086236463</v>
+        <v>3.008305367423241</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.449066527418779</v>
+        <v>1.50707818251042</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.828607971158697</v>
+        <v>2.955519088097514</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.209189053067952</v>
+        <v>8.303646805095376</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.662501222401879</v>
+        <v>6.578682153718384</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.678683862341747</v>
+        <v>6.681571259490052</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>0.5607112610163599</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.9108643512569017</v>
+        <v>0.9108643512569014</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.7575792415191465</v>
+        <v>0.8283540840558024</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1720045383585535</v>
+        <v>0.1758911461452001</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5007563732132824</v>
+        <v>0.5221562609294045</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.531681329551689</v>
+        <v>3.608697525458108</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.076255361413426</v>
+        <v>1.07541179693712</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.473292326942947</v>
+        <v>1.491654002001714</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9097920686461621</v>
+        <v>0.9163411184145221</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.665049359888284</v>
+        <v>1.715256486911327</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.707265489414397</v>
+        <v>1.636779664085142</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.134140505050862</v>
+        <v>3.29015622374789</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.050254733380984</v>
+        <v>5.193836578510709</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.900704310242129</v>
+        <v>3.815603556133902</v>
       </c>
     </row>
     <row r="13">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>2.727643001147375</v>
+        <v>2.727643001147374</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>0.9974103436853953</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.6176601584834418</v>
+        <v>0.6649513372894281</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4110304269465559</v>
+        <v>0.3879252272024779</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5988769935995949</v>
+        <v>0.5841430923402965</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7.441150152214951</v>
+        <v>10.69794031237681</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.066614482512466</v>
+        <v>2.084885985952653</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.334762449689017</v>
+        <v>2.307957642827237</v>
       </c>
     </row>
     <row r="16">
@@ -779,7 +779,7 @@
         <v>1.211576700282722</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.889800565627002</v>
+        <v>1.889800565627001</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>1.58717768534417</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3679620683546633</v>
+        <v>0.3076056048404035</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1302149695470406</v>
+        <v>0.09775065097363891</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6541574909264312</v>
+        <v>0.6208920427930985</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.3600893281238</v>
+        <v>2.195370298766696</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.443463271694517</v>
+        <v>3.384678613683425</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.495795412232616</v>
+        <v>2.43414519406946</v>
       </c>
     </row>
     <row r="19">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2.061878415878251</v>
+        <v>2.06187841587825</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.6885145862841887</v>
+        <v>0.6885145862841884</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.9734073851848591</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1272026850237101</v>
+        <v>0.03374552927089141</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.009925896375751083</v>
+        <v>0.003825961349736606</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.315776450134516</v>
+        <v>0.2717306823220639</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>10.56855631047963</v>
+        <v>7.633645412681099</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.837219330314044</v>
+        <v>1.889236773264247</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.128608962624802</v>
+        <v>2.050229740320296</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9554820131968388</v>
+        <v>1.087951093370781</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5999736152067012</v>
+        <v>-0.4858698381365679</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6664427739233896</v>
+        <v>0.6120895022527647</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.632698381314043</v>
+        <v>3.680227011957256</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.548601018306328</v>
+        <v>2.472576229767767</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.662218104088787</v>
+        <v>2.654860617054242</v>
       </c>
     </row>
     <row r="25">
@@ -939,7 +939,7 @@
         <v>0.7475239991949072</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.658136925943896</v>
+        <v>1.658136925943895</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.4184519553866868</v>
+        <v>0.5287014047316178</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.274379703482955</v>
+        <v>-0.194158526457714</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.314953819691519</v>
+        <v>0.2324723696166107</v>
       </c>
     </row>
     <row r="27">
@@ -968,10 +968,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>3.498772284998438</v>
+        <v>3.260251348307868</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.880900477701233</v>
+        <v>4.64441496639875</v>
       </c>
     </row>
     <row r="28">
@@ -989,7 +989,7 @@
         <v>1.786611210507891</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>1.603445480107196</v>
+        <v>1.603445480107197</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>1.70262446449891</v>
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.07582873612507</v>
+        <v>1.073227862166954</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6440339888205775</v>
+        <v>0.4887016078526397</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.12588175482813</v>
+        <v>1.080108171674295</v>
       </c>
     </row>
     <row r="30">
@@ -1020,13 +1020,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.564264810461375</v>
+        <v>2.564191131784823</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.557344808366071</v>
+        <v>2.490208424118616</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.377550988035113</v>
+        <v>2.363899803947975</v>
       </c>
     </row>
     <row r="31">
@@ -1040,7 +1040,7 @@
         <v>1.293605866631827</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.3686706632788251</v>
+        <v>0.3686706632788255</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.5872499975722181</v>
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.5679388460805724</v>
+        <v>0.6199708389603792</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1240865701901975</v>
+        <v>0.09494423238961722</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3439173238710135</v>
+        <v>0.3413390461679817</v>
       </c>
     </row>
     <row r="33">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.29989245845692</v>
+        <v>2.367253728491044</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6686048363773095</v>
+        <v>0.6599092371352835</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9195582407352324</v>
+        <v>0.9259360061417304</v>
       </c>
     </row>
     <row r="34">
